--- a/Stores Quarter.xlsx
+++ b/Stores Quarter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miche\Desktop\revenue-forecast-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{952F1868-972B-4A97-B39E-06578BE17C30}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9DB33C2-2303-4D46-B1A2-67A201CBB719}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2099,8 +2099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="N257" sqref="N257:N262"/>
+    <sheetView tabSelected="1" topLeftCell="F137" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="T147" sqref="T147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -5054,6 +5054,12 @@
       <c r="N142" s="2">
         <v>2011</v>
       </c>
+      <c r="R142" s="2">
+        <v>2011</v>
+      </c>
+      <c r="S142" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="143" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A143" s="55">
@@ -5080,6 +5086,12 @@
       <c r="N143" s="2">
         <v>2011.25</v>
       </c>
+      <c r="R143" s="2">
+        <v>2011.25</v>
+      </c>
+      <c r="S143" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="144" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A144" s="55">
@@ -5114,14 +5126,26 @@
       <c r="N144" s="2">
         <v>2011.25</v>
       </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R144" s="2">
+        <v>2011.5</v>
+      </c>
+      <c r="S144" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H145" s="24"/>
       <c r="I145" s="24"/>
       <c r="J145" s="14"/>
       <c r="L145" s="25"/>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R145" s="2">
+        <v>2011.75</v>
+      </c>
+      <c r="S145" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B146" s="13" t="s">
         <v>186</v>
       </c>
@@ -5132,8 +5156,14 @@
       <c r="I146" s="24"/>
       <c r="J146" s="14"/>
       <c r="L146" s="25"/>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R146" s="2">
+        <v>2012</v>
+      </c>
+      <c r="S146" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" s="55">
         <v>104</v>
       </c>
@@ -5158,8 +5188,14 @@
       <c r="N147" s="2">
         <v>2012</v>
       </c>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R147" s="2">
+        <v>2012.25</v>
+      </c>
+      <c r="S147" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" s="55">
         <v>105</v>
       </c>
@@ -5184,8 +5220,14 @@
       <c r="N148" s="2">
         <v>2012.25</v>
       </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R148" s="2">
+        <v>2012.5</v>
+      </c>
+      <c r="S148" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" s="55">
         <v>106</v>
       </c>
@@ -5210,8 +5252,14 @@
       <c r="N149" s="2">
         <v>2012.5</v>
       </c>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R149" s="2">
+        <v>2012.75</v>
+      </c>
+      <c r="S149" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150" s="55">
         <v>107</v>
       </c>
@@ -5236,8 +5284,14 @@
       <c r="N150" s="2">
         <v>2012.75</v>
       </c>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R150" s="2">
+        <v>2013</v>
+      </c>
+      <c r="S150" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" s="55">
         <v>108</v>
       </c>
@@ -5265,15 +5319,27 @@
         <v>41365</v>
       </c>
       <c r="L151" s="25"/>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R151" s="2">
+        <v>2013.25</v>
+      </c>
+      <c r="S151" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F152" s="16"/>
       <c r="H152" s="24"/>
       <c r="I152" s="24"/>
       <c r="J152" s="14"/>
       <c r="L152" s="25"/>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R152" s="2">
+        <v>2013.5</v>
+      </c>
+      <c r="S152" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B153" s="13" t="s">
         <v>185</v>
       </c>
@@ -5285,8 +5351,14 @@
       <c r="I153" s="24"/>
       <c r="J153" s="14"/>
       <c r="L153" s="25"/>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R153" s="2">
+        <v>2013.75</v>
+      </c>
+      <c r="S153" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154" s="55">
         <v>109</v>
       </c>
@@ -5313,8 +5385,14 @@
       <c r="N154" s="2">
         <v>2013</v>
       </c>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R154" s="2">
+        <v>2014</v>
+      </c>
+      <c r="S154" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" s="55">
         <v>110</v>
       </c>
@@ -5342,8 +5420,14 @@
       <c r="N155" s="2">
         <v>2013</v>
       </c>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R155" s="2">
+        <v>2014.25</v>
+      </c>
+      <c r="S155" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156" s="55">
         <v>111</v>
       </c>
@@ -5368,8 +5452,14 @@
       <c r="N156" s="2">
         <v>2013.25</v>
       </c>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R156" s="2">
+        <v>2014.5</v>
+      </c>
+      <c r="S156" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157" s="55">
         <v>112</v>
       </c>
@@ -5396,8 +5486,14 @@
       <c r="N157" s="2">
         <v>2013.25</v>
       </c>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R157" s="2">
+        <v>2014.75</v>
+      </c>
+      <c r="S157" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158" s="55">
         <v>113</v>
       </c>
@@ -5422,8 +5518,14 @@
       <c r="N158" s="2">
         <v>2013.25</v>
       </c>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R158" s="2">
+        <v>2015</v>
+      </c>
+      <c r="S158" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159" s="55">
         <v>114</v>
       </c>
@@ -5450,8 +5552,14 @@
       <c r="N159" s="2">
         <v>2013.5</v>
       </c>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R159" s="2">
+        <v>2015.25</v>
+      </c>
+      <c r="S159" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160" s="55">
         <v>115</v>
       </c>
@@ -5478,8 +5586,14 @@
       <c r="N160" s="2">
         <v>2013.5</v>
       </c>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R160" s="2">
+        <v>2015.5</v>
+      </c>
+      <c r="S160" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161" s="55">
         <v>116</v>
       </c>
@@ -5504,8 +5618,14 @@
       <c r="N161" s="2">
         <v>2013.5</v>
       </c>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R161" s="2">
+        <v>2015.75</v>
+      </c>
+      <c r="S161" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162" s="55">
         <v>117</v>
       </c>
@@ -5530,8 +5650,14 @@
       <c r="N162" s="2">
         <v>2013.75</v>
       </c>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R162" s="2">
+        <v>2016</v>
+      </c>
+      <c r="S162" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163" s="55">
         <v>118</v>
       </c>
@@ -5562,14 +5688,26 @@
       <c r="N163" s="2">
         <v>2013.75</v>
       </c>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R163" s="2">
+        <v>2016.25</v>
+      </c>
+      <c r="S163" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H164" s="24"/>
       <c r="I164" s="24"/>
       <c r="J164" s="14"/>
       <c r="L164" s="25"/>
-    </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R164" s="2">
+        <v>2016.5</v>
+      </c>
+      <c r="S164" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B165" s="13" t="s">
         <v>184</v>
       </c>
@@ -5580,8 +5718,14 @@
       <c r="I165" s="24"/>
       <c r="J165" s="14"/>
       <c r="L165" s="25"/>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R165" s="2">
+        <v>2016.75</v>
+      </c>
+      <c r="S165" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A166" s="55">
         <v>119</v>
       </c>
@@ -5606,8 +5750,14 @@
       <c r="N166" s="2">
         <v>2014</v>
       </c>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R166" s="2">
+        <v>2017</v>
+      </c>
+      <c r="S166" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A167" s="55">
         <v>120</v>
       </c>
@@ -5632,8 +5782,14 @@
       <c r="N167" s="2">
         <v>2014</v>
       </c>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R167" s="2">
+        <v>2017.25</v>
+      </c>
+      <c r="S167" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168" s="55">
         <v>121</v>
       </c>
@@ -5658,8 +5814,14 @@
       <c r="N168" s="2">
         <v>2014</v>
       </c>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R168" s="2">
+        <v>2017.5</v>
+      </c>
+      <c r="S168" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A169" s="55">
         <v>122</v>
       </c>
@@ -5684,8 +5846,14 @@
       <c r="N169" s="2">
         <v>2014.25</v>
       </c>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R169" s="2">
+        <v>2017.75</v>
+      </c>
+      <c r="S169" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A170" s="55">
         <v>123</v>
       </c>
@@ -5710,8 +5878,14 @@
       <c r="N170" s="2">
         <v>2014.25</v>
       </c>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R170" s="2">
+        <v>2018</v>
+      </c>
+      <c r="S170" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171" s="55">
         <v>124</v>
       </c>
@@ -5738,8 +5912,14 @@
       <c r="N171" s="2">
         <v>2014.5</v>
       </c>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R171" s="2">
+        <v>2018.25</v>
+      </c>
+      <c r="S171" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A172" s="55">
         <v>125</v>
       </c>
@@ -5766,8 +5946,14 @@
       <c r="N172" s="2">
         <v>2014.5</v>
       </c>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R172" s="2">
+        <v>2018.5</v>
+      </c>
+      <c r="S172" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A173" s="55">
         <v>126</v>
       </c>
@@ -5794,8 +5980,14 @@
       <c r="N173" s="2">
         <v>2014.5</v>
       </c>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R173" s="2">
+        <v>2018.75</v>
+      </c>
+      <c r="S173" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A174" s="55">
         <v>127</v>
       </c>
@@ -5824,8 +6016,14 @@
       <c r="N174" s="2">
         <v>2014.75</v>
       </c>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R174" s="2">
+        <v>2019</v>
+      </c>
+      <c r="S174" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A175" s="55">
         <v>28</v>
       </c>
@@ -5854,8 +6052,14 @@
       <c r="N175" s="2">
         <v>2014.75</v>
       </c>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R175" s="2">
+        <v>2019.25</v>
+      </c>
+      <c r="S175" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A176" s="55">
         <v>129</v>
       </c>
@@ -5882,8 +6086,14 @@
       <c r="N176" s="2">
         <v>2014.75</v>
       </c>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R176" s="2">
+        <v>2019.5</v>
+      </c>
+      <c r="S176" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A177" s="55">
         <v>130</v>
       </c>
@@ -5910,8 +6120,14 @@
       <c r="N177" s="2">
         <v>2014.75</v>
       </c>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R177" s="2">
+        <v>2019.75</v>
+      </c>
+      <c r="S177" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A178" s="55">
         <v>131</v>
       </c>
@@ -5947,13 +6163,13 @@
         <v>2014.75</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H179" s="24"/>
       <c r="I179" s="24"/>
       <c r="J179" s="14"/>
       <c r="L179" s="25"/>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B180" s="13" t="s">
         <v>183</v>
       </c>
@@ -5963,7 +6179,7 @@
       <c r="J180" s="14"/>
       <c r="L180" s="25"/>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A181" s="55">
         <v>132</v>
       </c>
@@ -5993,7 +6209,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A182" s="55">
         <v>133</v>
       </c>
@@ -6021,7 +6237,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A183" s="55">
         <v>134</v>
       </c>
@@ -6049,7 +6265,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A184" s="55">
         <v>135</v>
       </c>
@@ -6079,7 +6295,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A185" s="55">
         <v>136</v>
       </c>
@@ -6107,7 +6323,7 @@
         <v>2015.25</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A186" s="55">
         <v>137</v>
       </c>
@@ -6135,7 +6351,7 @@
         <v>2015.25</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A187" s="55">
         <v>138</v>
       </c>
@@ -6163,7 +6379,7 @@
         <v>2015.25</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A188" s="55">
         <v>139</v>
       </c>
@@ -6193,7 +6409,7 @@
         <v>2015.25</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A189" s="55">
         <v>140</v>
       </c>
@@ -6221,7 +6437,7 @@
         <v>2015.5</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A190" s="55">
         <v>141</v>
       </c>
@@ -6249,7 +6465,7 @@
         <v>2015.5</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A191" s="55">
         <v>142</v>
       </c>
@@ -6277,7 +6493,7 @@
         <v>2015.5</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A192" s="55">
         <v>143</v>
       </c>
